--- a/Excel/HKPL_inverter.xlsx
+++ b/Excel/HKPL_inverter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A55F22-B902-47F2-A9D4-BFE557CAB131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3570D1BD-8DBE-40E2-B06A-5564E63B10C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{99192484-EB91-44E0-A457-1479659BB06E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{99192484-EB91-44E0-A457-1479659BB06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,29 @@
     <t>INVERTER REPORT</t>
   </si>
   <si>
-    <t>Hare Krishna Steel Tube &amp; Pipes Pvt Ltd (DC Capacity : 6 MW)</t>
+    <t>ADDRESS  - Chaurenga, Simga</t>
   </si>
   <si>
-    <t>ADDRESS  - Chaurenga, Simga</t>
+    <r>
+      <t xml:space="preserve">Hare Krishna Steel Tube &amp; Pipes Pvt Ltd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>(DC Capacity : 6 MW)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +68,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Book Antiqua"/>
@@ -71,6 +76,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
@@ -96,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,13 +123,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,14 +452,14 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L5"/>
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -480,50 +502,50 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
